--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Docling/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Docling/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,279 +757,349 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1574</v>
+        <v>735</v>
       </c>
       <c r="C5" t="n">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2836</v>
+        <v>0.0216</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4197</v>
+        <v>0.0722</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8426</v>
+        <v>0.0309</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3367</v>
+        <v>0.9592000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4505</v>
+        <v>0.9792</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4328</v>
+        <v>0.9691</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5789</v>
+        <v>0.9895</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3788</v>
+        <v>0.9641</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5067</v>
+        <v>0.9843</v>
       </c>
       <c r="T5" t="n">
-        <v>0.241</v>
+        <v>0.9588</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.6761</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>851</v>
+        <v>1574</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0345</v>
+        <v>0.2836</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2568</v>
+        <v>1.4197</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1284</v>
+        <v>0.8426</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8481</v>
+        <v>0.3367</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9054</v>
+        <v>0.4505</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9054</v>
+        <v>0.4328</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.964</v>
+        <v>0.5789</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8758</v>
+        <v>0.3788</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9338</v>
+        <v>0.5067</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8866000000000001</v>
+        <v>0.241</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4811</v>
+        <v>0</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>1465</v>
+        <v>851</v>
       </c>
       <c r="C7" t="n">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1594</v>
+        <v>0.0345</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="H7" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8571</v>
+        <v>0.2568</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3784</v>
+        <v>0.1284</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5636</v>
+        <v>0.8481</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7387</v>
+        <v>0.9054</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6332</v>
+        <v>0.9054</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8038999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5964</v>
+        <v>0.8758</v>
       </c>
       <c r="S7" t="n">
-        <v>0.77</v>
+        <v>0.9338</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.8866000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1446</v>
+        <v>0.4811</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1465</v>
+      </c>
+      <c r="C8" t="n">
+        <v>172</v>
+      </c>
+      <c r="D8" t="n">
+        <v>89</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1594</v>
+      </c>
+      <c r="F8" t="n">
+        <v>259</v>
+      </c>
+      <c r="G8" t="n">
+        <v>164</v>
+      </c>
+      <c r="H8" t="n">
+        <v>95</v>
+      </c>
+      <c r="I8" t="n">
+        <v>127</v>
+      </c>
+      <c r="J8" t="n">
+        <v>55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3784</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5636</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7387</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6332</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8038999999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5964</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1446</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>766</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>729</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.0587</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>129</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>119</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L9" t="n">
         <v>0.1473</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M9" t="n">
         <v>0.062</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N9" t="n">
         <v>0.9297</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O9" t="n">
         <v>0.9754</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>0.9225</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>0.9597</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R9" t="n">
         <v>0.9261</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>0.9675</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>0.8668</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>0.3422</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
